--- a/raw_data/eurostat/nuts2_demographics_gender.xlsx
+++ b/raw_data/eurostat/nuts2_demographics_gender.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aml/AutoEmp/raw_data/eurostat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E5C846-03FA-F64B-9D6B-7B156522202C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51EB53E4-C3B8-6D4D-BA78-C9AE83BD6579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" firstSheet="4" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
     <sheet name="Sheet 24" sheetId="26" r:id="rId26"/>
     <sheet name="Sheet 25" sheetId="27" r:id="rId27"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -747,6 +747,12 @@
     <xf numFmtId="165" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -756,12 +762,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1178,22 +1178,22 @@
       <c r="A8" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
@@ -1864,42 +1864,42 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="23" t="s">
+      <c r="D11" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="25" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" s="23" t="s">
+      <c r="D12" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="25" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2515,42 +2515,42 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="23" t="s">
+      <c r="D11" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="25" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" s="23" t="s">
+      <c r="D12" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="25" t="s">
         <v>73</v>
       </c>
     </row>
@@ -3158,42 +3158,42 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="23" t="s">
+      <c r="D11" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="25" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" s="23" t="s">
+      <c r="D12" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="25" t="s">
         <v>73</v>
       </c>
     </row>
@@ -3801,42 +3801,42 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="23" t="s">
+      <c r="D11" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="25" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" s="23" t="s">
+      <c r="D12" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="25" t="s">
         <v>73</v>
       </c>
     </row>
@@ -4444,42 +4444,42 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="23" t="s">
+      <c r="D11" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="25" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" s="23" t="s">
+      <c r="D12" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="25" t="s">
         <v>73</v>
       </c>
     </row>
@@ -5087,42 +5087,42 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="23" t="s">
+      <c r="D11" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="25" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" s="23" t="s">
+      <c r="D12" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="25" t="s">
         <v>73</v>
       </c>
     </row>
@@ -5730,42 +5730,42 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="23" t="s">
+      <c r="D11" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="25" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" s="23" t="s">
+      <c r="D12" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="25" t="s">
         <v>73</v>
       </c>
     </row>
@@ -6373,42 +6373,42 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="23" t="s">
+      <c r="D11" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="25" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" s="23" t="s">
+      <c r="D12" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="25" t="s">
         <v>73</v>
       </c>
     </row>
@@ -7016,42 +7016,42 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="23" t="s">
+      <c r="D11" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="25" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" s="23" t="s">
+      <c r="D12" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="25" t="s">
         <v>73</v>
       </c>
     </row>
@@ -7659,42 +7659,42 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="23" t="s">
+      <c r="D11" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="25" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" s="23" t="s">
+      <c r="D12" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="25" t="s">
         <v>73</v>
       </c>
     </row>
@@ -9026,11 +9026,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="13" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14:D36"/>
+      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9104,10 +9104,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="24" t="s">
         <v>152</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -9118,10 +9118,10 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="24" t="s">
         <v>153</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -9152,10 +9152,10 @@
       <c r="B14" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="20">
         <v>41026</v>
       </c>
-      <c r="D14" s="24">
+      <c r="D14" s="20">
         <v>20926</v>
       </c>
     </row>
@@ -9166,10 +9166,10 @@
       <c r="B15" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C15" s="21">
         <v>7871.1</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D15" s="21">
         <v>4064</v>
       </c>
     </row>
@@ -9180,10 +9180,10 @@
       <c r="B16" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="24">
+      <c r="C16" s="20">
         <v>1536.1</v>
       </c>
-      <c r="D16" s="24">
+      <c r="D16" s="20">
         <v>780.9</v>
       </c>
     </row>
@@ -9194,10 +9194,10 @@
       <c r="B17" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="25">
+      <c r="C17" s="21">
         <v>980.6</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D17" s="21">
         <v>499.3</v>
       </c>
     </row>
@@ -9208,10 +9208,10 @@
       <c r="B18" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C18" s="24">
+      <c r="C18" s="20">
         <v>720.6</v>
       </c>
-      <c r="D18" s="24">
+      <c r="D18" s="20">
         <v>364.9</v>
       </c>
     </row>
@@ -9222,10 +9222,10 @@
       <c r="B19" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C19" s="25">
+      <c r="C19" s="21">
         <v>890.2</v>
       </c>
-      <c r="D19" s="25">
+      <c r="D19" s="21">
         <v>444.8</v>
       </c>
     </row>
@@ -9236,10 +9236,10 @@
       <c r="B20" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C20" s="24">
+      <c r="C20" s="20">
         <v>1130.5</v>
       </c>
-      <c r="D20" s="24">
+      <c r="D20" s="20">
         <v>578.20000000000005</v>
       </c>
     </row>
@@ -9250,10 +9250,10 @@
       <c r="B21" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C21" s="25">
+      <c r="C21" s="21">
         <v>2548.3000000000002</v>
       </c>
-      <c r="D21" s="25">
+      <c r="D21" s="21">
         <v>1295.5999999999999</v>
       </c>
     </row>
@@ -9264,10 +9264,10 @@
       <c r="B22" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C22" s="24">
+      <c r="C22" s="20">
         <v>1187.5</v>
       </c>
-      <c r="D22" s="24">
+      <c r="D22" s="20">
         <v>600</v>
       </c>
     </row>
@@ -9278,10 +9278,10 @@
       <c r="B23" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C23" s="25">
+      <c r="C23" s="21">
         <v>1191.3</v>
       </c>
-      <c r="D23" s="25">
+      <c r="D23" s="21">
         <v>606.6</v>
       </c>
     </row>
@@ -9292,10 +9292,10 @@
       <c r="B24" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C24" s="24">
+      <c r="C24" s="20">
         <v>812</v>
       </c>
-      <c r="D24" s="24">
+      <c r="D24" s="20">
         <v>407.4</v>
       </c>
     </row>
@@ -9306,10 +9306,10 @@
       <c r="B25" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C25" s="25">
+      <c r="C25" s="21">
         <v>1450.2</v>
       </c>
-      <c r="D25" s="25">
+      <c r="D25" s="21">
         <v>730.2</v>
       </c>
     </row>
@@ -9320,10 +9320,10 @@
       <c r="B26" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C26" s="24">
+      <c r="C26" s="20">
         <v>2279.4</v>
       </c>
-      <c r="D26" s="24">
+      <c r="D26" s="20">
         <v>1146.0999999999999</v>
       </c>
     </row>
@@ -9334,10 +9334,10 @@
       <c r="B27" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C27" s="25">
+      <c r="C27" s="21">
         <v>1994.1</v>
       </c>
-      <c r="D27" s="25">
+      <c r="D27" s="21">
         <v>1002.5</v>
       </c>
     </row>
@@ -9348,10 +9348,10 @@
       <c r="B28" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C28" s="24">
+      <c r="C28" s="20">
         <v>2072</v>
       </c>
-      <c r="D28" s="24">
+      <c r="D28" s="20">
         <v>1055.5999999999999</v>
       </c>
     </row>
@@ -9362,10 +9362,10 @@
       <c r="B29" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C29" s="25">
+      <c r="C29" s="21">
         <v>438.5</v>
       </c>
-      <c r="D29" s="25">
+      <c r="D29" s="21">
         <v>222.7</v>
       </c>
     </row>
@@ -9376,10 +9376,10 @@
       <c r="B30" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C30" s="24">
+      <c r="C30" s="20">
         <v>1059.5</v>
       </c>
-      <c r="D30" s="24">
+      <c r="D30" s="20">
         <v>536.4</v>
       </c>
     </row>
@@ -9390,10 +9390,10 @@
       <c r="B31" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C31" s="25">
+      <c r="C31" s="21">
         <v>1674.1</v>
       </c>
-      <c r="D31" s="25">
+      <c r="D31" s="21">
         <v>861.8</v>
       </c>
     </row>
@@ -9404,10 +9404,10 @@
       <c r="B32" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C32" s="24">
+      <c r="C32" s="20">
         <v>1843.4</v>
       </c>
-      <c r="D32" s="24">
+      <c r="D32" s="20">
         <v>925.2</v>
       </c>
     </row>
@@ -9418,10 +9418,10 @@
       <c r="B33" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C33" s="25">
+      <c r="C33" s="21">
         <v>816.2</v>
       </c>
-      <c r="D33" s="25">
+      <c r="D33" s="21">
         <v>415.1</v>
       </c>
     </row>
@@ -9432,10 +9432,10 @@
       <c r="B34" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C34" s="24">
+      <c r="C34" s="20">
         <v>4061.8</v>
       </c>
-      <c r="D34" s="24">
+      <c r="D34" s="20">
         <v>2058.1999999999998</v>
       </c>
     </row>
@@ -9446,10 +9446,10 @@
       <c r="B35" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C35" s="25">
+      <c r="C35" s="21">
         <v>3001.7</v>
       </c>
-      <c r="D35" s="25">
+      <c r="D35" s="21">
         <v>1551.2</v>
       </c>
     </row>
@@ -9460,10 +9460,10 @@
       <c r="B36" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C36" s="24">
+      <c r="C36" s="20">
         <v>155</v>
       </c>
-      <c r="D36" s="24">
+      <c r="D36" s="20">
         <v>75.900000000000006</v>
       </c>
     </row>
@@ -9587,42 +9587,42 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="23" t="s">
+      <c r="D11" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="25" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" s="23" t="s">
+      <c r="D12" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="25" t="s">
         <v>73</v>
       </c>
     </row>
@@ -10230,42 +10230,42 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="23" t="s">
+      <c r="D11" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="25" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" s="23" t="s">
+      <c r="D12" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="25" t="s">
         <v>73</v>
       </c>
     </row>
@@ -10873,42 +10873,42 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="23" t="s">
+      <c r="D11" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="25" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" s="23" t="s">
+      <c r="D12" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="25" t="s">
         <v>73</v>
       </c>
     </row>
@@ -11516,42 +11516,42 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="23" t="s">
+      <c r="D11" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="25" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" s="23" t="s">
+      <c r="D12" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="25" t="s">
         <v>73</v>
       </c>
     </row>
@@ -12159,42 +12159,42 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="23" t="s">
+      <c r="D11" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="25" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" s="23" t="s">
+      <c r="D12" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="25" t="s">
         <v>73</v>
       </c>
     </row>
@@ -12810,42 +12810,42 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="23" t="s">
+      <c r="D11" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="25" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" s="23" t="s">
+      <c r="D12" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="25" t="s">
         <v>73</v>
       </c>
     </row>
@@ -13461,42 +13461,42 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="23" t="s">
+      <c r="D11" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="25" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" s="23" t="s">
+      <c r="D12" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="25" t="s">
         <v>73</v>
       </c>
     </row>
@@ -14112,42 +14112,42 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="23" t="s">
+      <c r="D11" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="25" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" s="23" t="s">
+      <c r="D12" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="25" t="s">
         <v>73</v>
       </c>
     </row>
@@ -14755,42 +14755,42 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="23" t="s">
+      <c r="D11" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="25" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" s="23" t="s">
+      <c r="D12" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="25" t="s">
         <v>73</v>
       </c>
     </row>
@@ -15395,10 +15395,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="24" t="s">
         <v>152</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -15409,10 +15409,10 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="24" t="s">
         <v>153</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -15443,10 +15443,10 @@
       <c r="B14" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="20">
         <v>38714.800000000003</v>
       </c>
-      <c r="D14" s="24">
+      <c r="D14" s="20">
         <v>19582</v>
       </c>
     </row>
@@ -15457,10 +15457,10 @@
       <c r="B15" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C15" s="21">
         <v>7626.3</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D15" s="21">
         <v>3883</v>
       </c>
     </row>
@@ -15471,10 +15471,10 @@
       <c r="B16" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="24">
+      <c r="C16" s="20">
         <v>1567.9</v>
       </c>
-      <c r="D16" s="24">
+      <c r="D16" s="20">
         <v>795</v>
       </c>
     </row>
@@ -15485,10 +15485,10 @@
       <c r="B17" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="25">
+      <c r="C17" s="21">
         <v>948.8</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D17" s="21">
         <v>478.5</v>
       </c>
     </row>
@@ -15499,10 +15499,10 @@
       <c r="B18" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C18" s="24">
+      <c r="C18" s="20">
         <v>761.2</v>
       </c>
-      <c r="D18" s="24">
+      <c r="D18" s="20">
         <v>383.6</v>
       </c>
     </row>
@@ -15513,10 +15513,10 @@
       <c r="B19" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C19" s="25">
+      <c r="C19" s="21">
         <v>770.8</v>
       </c>
-      <c r="D19" s="25">
+      <c r="D19" s="21">
         <v>386.8</v>
       </c>
     </row>
@@ -15527,10 +15527,10 @@
       <c r="B20" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C20" s="24">
+      <c r="C20" s="20">
         <v>1151</v>
       </c>
-      <c r="D20" s="24">
+      <c r="D20" s="20">
         <v>586.9</v>
       </c>
     </row>
@@ -15541,10 +15541,10 @@
       <c r="B21" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C21" s="25">
+      <c r="C21" s="21">
         <v>2619.5</v>
       </c>
-      <c r="D21" s="25">
+      <c r="D21" s="21">
         <v>1307.8</v>
       </c>
     </row>
@@ -15555,10 +15555,10 @@
       <c r="B22" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C22" s="24">
+      <c r="C22" s="20">
         <v>1220.8</v>
       </c>
-      <c r="D22" s="24">
+      <c r="D22" s="20">
         <v>609.5</v>
       </c>
     </row>
@@ -15569,10 +15569,10 @@
       <c r="B23" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C23" s="25">
+      <c r="C23" s="21">
         <v>1157.8</v>
       </c>
-      <c r="D23" s="25">
+      <c r="D23" s="21">
         <v>574.9</v>
       </c>
     </row>
@@ -15583,10 +15583,10 @@
       <c r="B24" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C24" s="24">
+      <c r="C24" s="20">
         <v>807.5</v>
       </c>
-      <c r="D24" s="24">
+      <c r="D24" s="20">
         <v>410.2</v>
       </c>
     </row>
@@ -15597,10 +15597,10 @@
       <c r="B25" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C25" s="25">
+      <c r="C25" s="21">
         <v>1592.6</v>
       </c>
-      <c r="D25" s="25">
+      <c r="D25" s="21">
         <v>787</v>
       </c>
     </row>
@@ -15611,10 +15611,10 @@
       <c r="B26" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C26" s="24">
+      <c r="C26" s="20">
         <v>1924.4</v>
       </c>
-      <c r="D26" s="24">
+      <c r="D26" s="20">
         <v>963.3</v>
       </c>
     </row>
@@ -15625,10 +15625,10 @@
       <c r="B27" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C27" s="25">
+      <c r="C27" s="21">
         <v>1945.5</v>
       </c>
-      <c r="D27" s="25">
+      <c r="D27" s="21">
         <v>986.4</v>
       </c>
     </row>
@@ -15639,10 +15639,10 @@
       <c r="B28" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C28" s="24">
+      <c r="C28" s="20">
         <v>2014.4</v>
       </c>
-      <c r="D28" s="24">
+      <c r="D28" s="20">
         <v>1014.2</v>
       </c>
     </row>
@@ -15653,10 +15653,10 @@
       <c r="B29" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C29" s="25">
+      <c r="C29" s="21">
         <v>412.5</v>
       </c>
-      <c r="D29" s="25">
+      <c r="D29" s="21">
         <v>208.9</v>
       </c>
     </row>
@@ -15667,10 +15667,10 @@
       <c r="B30" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C30" s="24">
+      <c r="C30" s="20">
         <v>921.6</v>
       </c>
-      <c r="D30" s="24">
+      <c r="D30" s="20">
         <v>455.5</v>
       </c>
     </row>
@@ -15681,10 +15681,10 @@
       <c r="B31" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C31" s="25">
+      <c r="C31" s="21">
         <v>1334.8</v>
       </c>
-      <c r="D31" s="25">
+      <c r="D31" s="21">
         <v>690.9</v>
       </c>
     </row>
@@ -15695,10 +15695,10 @@
       <c r="B32" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C32" s="24">
+      <c r="C32" s="20">
         <v>1633.1</v>
       </c>
-      <c r="D32" s="24">
+      <c r="D32" s="20">
         <v>817.7</v>
       </c>
     </row>
@@ -15709,10 +15709,10 @@
       <c r="B33" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C33" s="25">
+      <c r="C33" s="21">
         <v>773.6</v>
       </c>
-      <c r="D33" s="25">
+      <c r="D33" s="21">
         <v>389.7</v>
       </c>
     </row>
@@ -15723,10 +15723,10 @@
       <c r="B34" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C34" s="24">
+      <c r="C34" s="20">
         <v>3631.4</v>
       </c>
-      <c r="D34" s="24">
+      <c r="D34" s="20">
         <v>1828.5</v>
       </c>
     </row>
@@ -15737,10 +15737,10 @@
       <c r="B35" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C35" s="25">
+      <c r="C35" s="21">
         <v>2701.8</v>
       </c>
-      <c r="D35" s="25">
+      <c r="D35" s="21">
         <v>1405.5</v>
       </c>
     </row>
@@ -15751,10 +15751,10 @@
       <c r="B36" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C36" s="24">
+      <c r="C36" s="20">
         <v>101.8</v>
       </c>
-      <c r="D36" s="24">
+      <c r="D36" s="20">
         <v>52.5</v>
       </c>
     </row>
@@ -15878,42 +15878,42 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="23" t="s">
+      <c r="D11" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="25" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" s="23" t="s">
+      <c r="D12" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="25" t="s">
         <v>73</v>
       </c>
     </row>
@@ -16521,42 +16521,42 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="23" t="s">
+      <c r="D11" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="25" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" s="23" t="s">
+      <c r="D12" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="25" t="s">
         <v>73</v>
       </c>
     </row>
@@ -17091,11 +17091,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="13" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -17172,60 +17172,60 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="23" t="s">
+      <c r="D11" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="25" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" s="23" t="s">
+      <c r="D12" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="25" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>73</v>
+        <v>174</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>73</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>73</v>
+        <v>175</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>73</v>
@@ -17815,42 +17815,42 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="23" t="s">
+      <c r="D11" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="25" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" s="23" t="s">
+      <c r="D12" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="25" t="s">
         <v>73</v>
       </c>
     </row>
